--- a/data/scoring.xlsx
+++ b/data/scoring.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alan.sun/Documents/18-19/ee/eventSelectionOptimization/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F27C07-BEC2-5B41-8683-805D0FF40D64}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="440" windowWidth="19180" windowHeight="9200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scoring" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -109,8 +115,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,6 +179,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -219,7 +233,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -251,9 +265,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -285,6 +317,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -460,14 +510,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
+      <selection activeCell="P9" sqref="A1:S13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="14" max="14" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -523,7 +581,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -534,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E2">
         <v>16</v>
@@ -546,22 +604,22 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -576,131 +634,131 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B3">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>11</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>11</v>
+      </c>
+      <c r="K3">
         <v>9</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>4</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
+      <c r="L3">
+        <v>11</v>
+      </c>
+      <c r="M3">
+        <v>7</v>
+      </c>
+      <c r="N3">
+        <v>3</v>
+      </c>
+      <c r="O3">
         <v>1</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>5</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>7</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>2.25</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
       <c r="P3">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S3">
-        <v>1.25</v>
+        <v>2.75</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B4">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>16</v>
+      </c>
+      <c r="G4">
+        <v>16</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4">
         <v>7</v>
       </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>16</v>
-      </c>
-      <c r="G4">
-        <v>16</v>
-      </c>
-      <c r="H4">
+      <c r="K4">
+        <v>9</v>
+      </c>
+      <c r="L4">
+        <v>5</v>
+      </c>
+      <c r="M4">
+        <v>12</v>
+      </c>
+      <c r="N4">
         <v>3</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
+      <c r="O4">
+        <v>2.5</v>
+      </c>
+      <c r="P4">
         <v>3</v>
-      </c>
-      <c r="N4">
-        <v>1.75</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1.75</v>
       </c>
       <c r="Q4">
         <v>4</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>1.75</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -714,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -729,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -756,10 +814,10 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
@@ -773,14 +831,14 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>2</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
       <c r="H6">
         <v>0</v>
       </c>
@@ -788,13 +846,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -815,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -829,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E7">
         <v>16</v>
@@ -841,22 +899,22 @@
         <v>0</v>
       </c>
       <c r="H7">
+        <v>10</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
         <v>3</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
       <c r="M7">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -871,89 +929,89 @@
         <v>0</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D8">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>16</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>10</v>
+      </c>
+      <c r="K8">
+        <v>13</v>
+      </c>
+      <c r="L8">
         <v>7</v>
       </c>
-      <c r="E8">
-        <v>16</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>11</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
       <c r="M8">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="O8">
+        <v>1.75</v>
+      </c>
+      <c r="P8">
         <v>0.25</v>
       </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
       <c r="Q8">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>0.25</v>
+        <v>2.5</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -977,16 +1035,16 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P9">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q9">
-        <v>0.75</v>
+        <v>2.75</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -995,7 +1053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
@@ -1009,22 +1067,22 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1045,24 +1103,24 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="R10">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>1.75</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B11">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C11">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D11">
         <v>16</v>
@@ -1071,7 +1129,7 @@
         <v>16</v>
       </c>
       <c r="F11">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G11">
         <v>16</v>
@@ -1083,7 +1141,7 @@
         <v>16</v>
       </c>
       <c r="J11">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K11">
         <v>16</v>
@@ -1095,25 +1153,25 @@
         <v>16</v>
       </c>
       <c r="N11">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="O11">
+        <v>4</v>
+      </c>
+      <c r="P11">
         <v>3.25</v>
       </c>
-      <c r="P11">
-        <v>2.75</v>
-      </c>
       <c r="Q11">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="R11">
         <v>4</v>
       </c>
       <c r="S11">
-        <v>3.25</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -1124,10 +1182,10 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E12">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1151,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1172,12 +1230,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1186,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1204,22 +1262,22 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="Q13">
         <v>0</v>

--- a/data/scoring.xlsx
+++ b/data/scoring.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alan.sun/Documents/18-19/ee/eventSelectionOptimization/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F27C07-BEC2-5B41-8683-805D0FF40D64}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="440" windowWidth="19180" windowHeight="9200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Scoring" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -115,8 +109,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,14 +173,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -233,7 +219,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -265,27 +251,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -317,24 +285,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -510,22 +460,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="P9" sqref="A1:S13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="14" max="14" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -581,7 +523,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -640,7 +582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -699,7 +641,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -758,7 +700,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -817,7 +759,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
@@ -876,7 +818,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -935,7 +877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
@@ -994,7 +936,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -1053,7 +995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
@@ -1112,7 +1054,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
@@ -1171,7 +1113,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -1230,7 +1172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>

--- a/data/scoring.xlsx
+++ b/data/scoring.xlsx
@@ -534,10 +534,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -576,7 +576,7 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -587,13 +587,13 @@
         <v>19</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>11</v>
@@ -605,40 +605,40 @@
         <v>0</v>
       </c>
       <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
         <v>10</v>
       </c>
-      <c r="I3">
-        <v>5</v>
-      </c>
-      <c r="J3">
-        <v>11</v>
-      </c>
       <c r="K3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L3">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="S3">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -646,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>10</v>
@@ -661,43 +661,43 @@
         <v>16</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H4">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J4">
+        <v>9</v>
+      </c>
+      <c r="K4">
         <v>7</v>
       </c>
-      <c r="K4">
-        <v>9</v>
-      </c>
       <c r="L4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M4">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="O4">
+        <v>1.25</v>
+      </c>
+      <c r="P4">
         <v>2.5</v>
-      </c>
-      <c r="P4">
-        <v>3</v>
       </c>
       <c r="Q4">
         <v>4</v>
       </c>
       <c r="R4">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="S4">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -729,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -788,13 +788,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>16</v>
@@ -841,10 +841,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -853,10 +853,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="R7">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -882,19 +882,19 @@
         <v>24</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E8">
         <v>16</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -906,34 +906,34 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="N8">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="O8">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q8">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>2.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -941,19 +941,19 @@
         <v>25</v>
       </c>
       <c r="B9">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -977,16 +977,16 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="O9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q9">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>7</v>
       </c>
       <c r="F10">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1045,13 +1045,13 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>1.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1059,13 +1059,13 @@
         <v>27</v>
       </c>
       <c r="B11">
+        <v>11</v>
+      </c>
+      <c r="C11">
         <v>13</v>
       </c>
-      <c r="C11">
-        <v>16</v>
-      </c>
       <c r="D11">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>16</v>
@@ -1083,7 +1083,7 @@
         <v>16</v>
       </c>
       <c r="J11">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K11">
         <v>16</v>
@@ -1095,13 +1095,13 @@
         <v>16</v>
       </c>
       <c r="N11">
+        <v>2.75</v>
+      </c>
+      <c r="O11">
         <v>3.25</v>
       </c>
-      <c r="O11">
-        <v>4</v>
-      </c>
       <c r="P11">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -1110,7 +1110,7 @@
         <v>4</v>
       </c>
       <c r="S11">
-        <v>4</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1124,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E12">
         <v>12</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1177,7 +1177,7 @@
         <v>29</v>
       </c>
       <c r="B13">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1204,22 +1204,22 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.75</v>
+        <v>0.75</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>1.75</v>
+        <v>0.75</v>
       </c>
       <c r="Q13">
         <v>0</v>
